--- a/BackEnd/Documents/Rendimientos/Rendimiento-Noviembre.xlsx
+++ b/BackEnd/Documents/Rendimientos/Rendimiento-Noviembre.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>RENDIMIENTOS</t>
   </si>
@@ -47,6 +47,21 @@
   </si>
   <si>
     <t>3434</t>
+  </si>
+  <si>
+    <t>4646</t>
+  </si>
+  <si>
+    <t>65465</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>786</t>
   </si>
 </sst>
 </file>
@@ -487,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E8"/>
+  <dimension ref="A4:E10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="5" width="30" outlineLevel="1" collapsed="1" customWidth="1"/>
@@ -557,6 +572,40 @@
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>654654</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>786</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
